--- a/manually_tasks.xlsx
+++ b/manually_tasks.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,12 +474,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.2.  Координация</t>
+          <t>13. Подключения МС в In@voice (Беркут)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:32:28</t>
+          <t>00:43:06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -489,24 +489,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-31 15:10:58</t>
+          <t>2024-07-03 09:00:41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TATTELECOM\upkoqlik</t>
+          <t>TATTELECOM\tat100yakvv</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.3. Телемаркетинг</t>
+          <t>ВСЕ Реклама Яндекс ФЛ+ЮЛ в.5 Готово</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:32:40</t>
+          <t>01:40:14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,24 +516,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-05-31 15:10:46</t>
+          <t>2024-07-03 08:03:32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TATTELECOM\upkoqlik</t>
+          <t>TATTELECOM\marketingqlik2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.4 ГТУА</t>
+          <t>ВСЕ Отчёт Картина по дашбордам ФЛ+ЮЛ в.2 Готово 02.03.22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:32:41</t>
+          <t>02:13:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,24 +543,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-05-31 15:10:44</t>
+          <t>2024-07-03 07:30:17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TATTELECOM\upkoqlik</t>
+          <t>TATTELECOM\marketingqlik2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13. Подключения МС в In@voice (Беркут)</t>
+          <t>ШТАТ БКС</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:42:45</t>
+          <t>02:31:35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-05-31 15:00:41</t>
+          <t>2024-07-03 07:12:11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -582,22 +582,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Обращения  ДАКД - OTRS</t>
+          <t>03. Телемаркетинг</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01:40:48</t>
+          <t>02:40:42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Aborted</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-05-31 14:02:38</t>
+          <t>2024-07-03 07:03:05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -609,12 +609,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V – Служебное QVD Мобильная связь</t>
+          <t>back_up_ГРАС - договоры ЗК</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:55:28</t>
+          <t>02:43:24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -624,24 +624,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-05-31 13:47:57</t>
+          <t>2024-07-03 07:00:23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TATTELECOM\marketingqlik2</t>
+          <t>TATTELECOM\tat100yakvv</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.4 ГТУА</t>
+          <t>07. Перезаключение ГК</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02:13:42</t>
+          <t>03:17:59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -651,24 +651,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-05-31 13:29:43</t>
+          <t>2024-07-03 06:25:48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TATTELECOM\upkoqlik</t>
+          <t>TATTELECOM\tat100yakvv</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>МС Подключения НОВЫЙ БИЛЛИНГ в.1 В разработке 19.04.24(1)</t>
+          <t>Госконтракты. Актирование</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>03:09:28</t>
+          <t>03:43:04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-05-31 12:33:57</t>
+          <t>2024-07-03 06:00:43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TATTELECOM\marketingqlik2</t>
+          <t>TATTELECOM\tat100yakvv</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>03:43:10</t>
+          <t>03:43:42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-05-31 12:00:16</t>
+          <t>2024-07-03 06:00:05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -717,12 +717,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ВСЕ Отчёт Картина по дашбордам ФЛ+ЮЛ в.2 Готово 02.03.22</t>
+          <t>Сервисные заявки</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04:10:30</t>
+          <t>04:23:13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -732,24 +732,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-05-31 11:32:56</t>
+          <t>2024-07-03 05:20:34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TATTELECOM\marketingqlik2</t>
+          <t>TATTELECOM\drskkqlik</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ДПП. Yougile(Летай)</t>
+          <t>11. Подключение IP Домофонии КУЭС</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04:42:33</t>
+          <t>04:36:47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-05-31 11:00:53</t>
+          <t>2024-07-03 05:07:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -771,12 +771,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ДПП. Yougile(Домофония)</t>
+          <t>25. Безопасный дом ver.2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04:50:28</t>
+          <t>05:28:19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -786,34 +786,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-05-31 10:52:58</t>
+          <t>2024-07-03 04:15:28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TATTELECOM\tat100yakvv</t>
+          <t>TATTELECOM\qlikdevelop</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ДПП. Yougile(Сафаргулов)</t>
+          <t>In@voice - Отток</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04:52:48</t>
+          <t>06:14:55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-05-31 10:50:38</t>
+          <t>2024-07-03 03:28:52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -825,66 +825,66 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03. ЭДО - Перевод клиентов b2b,b2g</t>
+          <t>25. Мониторинг нарядов по ip-домофонии</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05:35:07</t>
+          <t>06:18:36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-05-31 10:08:19</t>
+          <t>2024-07-03 03:25:11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TATTELECOM\tat100yakvv</t>
+          <t>TATTELECOM\marketingqlik</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06. Абоненты СПД В2В со скидками</t>
+          <t>ВСЕ Подключения ВАТС ЮЛ в.3 Готово</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:41:27</t>
+          <t>06:42:45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-05-31 10:01:59</t>
+          <t>2024-07-03 03:01:01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TATTELECOM\tat100yakvv</t>
+          <t>TATTELECOM\marketingqlik2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ВСЕ Реклама Яндекс ФЛ+ЮЛ в.5 Готово</t>
+          <t>стоимость B2B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:13:16</t>
+          <t>06:43:12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -894,51 +894,51 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-05-31 08:30:09</t>
+          <t>2024-07-03 03:00:35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TATTELECOM\marketingqlik2</t>
+          <t>TATTELECOM\tat100yakvv</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QVD_scripts(2)</t>
+          <t>МС Отчёт Мониторинг трафика БС ФЛ+ЮЛ в.1 Готово 30.01.2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:24:11</t>
+          <t>06:43:34</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-05-31 08:19:14</t>
+          <t>2024-07-03 03:00:12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TATTELECOM\qlikdevelop</t>
+          <t>TATTELECOM\marketingqlik2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25. Безопасный дом ver.2</t>
+          <t>11. Заявки поток Домофония</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>08:19:58</t>
+          <t>07:13:16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -948,24 +948,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-05-31 07:23:28</t>
+          <t>2024-07-03 02:30:31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TATTELECOM\tat100yakvv</t>
+          <t>TATTELECOM\marketingqlik</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ШТАТ БКС</t>
+          <t>29. Ключи по управляющим компаниям ver.2.0.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08:31:15</t>
+          <t>07:13:23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -975,34 +975,34 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-05-31 07:12:11</t>
+          <t>2024-07-03 02:30:24</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TATTELECOM\tat100yakvv</t>
+          <t>TATTELECOM\marketingqlik</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03. Телемаркетинг</t>
+          <t>QVD_papers_his_L1(2020)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>08:40:21</t>
+          <t>09:12:54</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aborted</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-05-31 07:03:05</t>
+          <t>2024-07-03 00:30:53</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1014,12 +1014,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>back_up_ГРАС - договоры ЗК</t>
+          <t>ДПП. Yougile(Летай)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08:43:03</t>
+          <t>10:42:54</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-05-31 07:00:23</t>
+          <t>2024-07-02 23:00:53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1041,12 +1041,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07. Перезаключение ГК</t>
+          <t>ДПП. Yougile(Домофония)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09:17:38</t>
+          <t>10:50:49</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-05-31 06:25:48</t>
+          <t>2024-07-02 22:52:58</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1068,22 +1068,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Госконтракты. Актирование</t>
+          <t>ДПП. Yougile(Сафаргулов)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>09:42:43</t>
+          <t>10:53:09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05-31 06:00:43</t>
+          <t>2024-07-02 22:50:38</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1095,12 +1095,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Сервисные заявки</t>
+          <t>04. Дилеры</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10:22:52</t>
+          <t>11:42:57</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1110,24 +1110,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-05-31 05:20:34</t>
+          <t>2024-07-02 22:00:50</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TATTELECOM\drskkqlik</t>
+          <t>TATTELECOM\marketingqlik</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11. Подключение IP Домофонии КУЭС</t>
+          <t>ОТ. Нарушения</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10:36:26</t>
+          <t>11:43:04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-05-31 05:07:00</t>
+          <t>2024-07-02 22:00:43</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1149,12 +1149,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>In@voice - Отток</t>
+          <t>Security Rule Analyzer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12:14:34</t>
+          <t>14:19:21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1164,24 +1164,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-05-31 03:28:52</t>
+          <t>2024-07-02 19:24:26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TATTELECOM\tat100yakvv</t>
+          <t>TATTELECOM\tat100yada</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25. Мониторинг нарядов по ip-домофонии</t>
+          <t>ВСЕ Ошибки Нет платежей более 7 мес ФЛ+ЮЛ Готово 27.09.21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12:18:15</t>
+          <t>20:14:02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1191,255 +1191,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-05-31 03:25:11</t>
+          <t>2024-07-02 13:29:44</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TATTELECOM\marketingqlik</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ВСЕ Подключения ВАТС ЮЛ в.3 Готово</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>12:42:22</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2024-05-31 03:01:03</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>TATTELECOM\marketingqlik2</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>стоимость B2B</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>12:42:51</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2024-05-31 03:00:35</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>TATTELECOM\tat100yakvv</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>МС Отчёт Мониторинг трафика БС ФЛ+ЮЛ в.1 Готово 30.01.2023</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>12:43:14</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2024-05-31 03:00:11</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>TATTELECOM\marketingqlik2</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>11. Заявки поток Домофония</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>13:12:55</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2024-05-31 02:30:31</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TATTELECOM\marketingqlik</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>29. Ключи по управляющим компаниям ver.2.0.0</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>13:13:02</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2024-05-31 02:30:24</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>TATTELECOM\marketingqlik</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>QVD_papers_his_L1(2020)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>15:12:33</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2024-05-31 00:30:53</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>TATTELECOM\tat100yakvv</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>04. Дилеры</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>17:42:36</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2024-05-30 22:00:50</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>TATTELECOM\marketingqlik</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ОТ. Нарушения</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>17:42:43</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2024-05-30 22:00:43</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>TATTELECOM\tat100yakvv</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Security Rule Analyzer</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>20:19:00</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2024-05-30 19:24:26</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>TATTELECOM\tat100yada</t>
         </is>
       </c>
     </row>
